--- a/AD_analyses/data/inflammatory_markers.xlsx
+++ b/AD_analyses/data/inflammatory_markers.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Samsung_T5/MiG_data/MDD_microglia_analysis/MDD_microglia_analysis/AD_analyses/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C869DC-C01B-904C-8FF5-722839D52D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E10A8E06-5A19-1144-BFBA-3F387BB8B41E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="520" yWindow="500" windowWidth="28040" windowHeight="16120" xr2:uid="{E8906868-7742-AB4B-A34A-77873D0F8489}"/>
+    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16120" xr2:uid="{E8906868-7742-AB4B-A34A-77873D0F8489}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,60 +34,127 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>IL-6</t>
-  </si>
-  <si>
-    <t>IL-1b</t>
-  </si>
-  <si>
-    <t>TNF-a</t>
-  </si>
-  <si>
-    <t>ENSG00000136244</t>
-  </si>
-  <si>
-    <t>ENSG00000125538</t>
-  </si>
-  <si>
-    <t>ENSG00000232810</t>
-  </si>
-  <si>
-    <t>ENSG00000136634</t>
-  </si>
-  <si>
-    <t>IL-10</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>NOS2</t>
   </si>
   <si>
-    <t>ENSG00000007171</t>
-  </si>
-  <si>
-    <t>ensembl</t>
-  </si>
-  <si>
     <t>symbol</t>
+  </si>
+  <si>
+    <t>IL6</t>
+  </si>
+  <si>
+    <t>TNF</t>
+  </si>
+  <si>
+    <t>IL10</t>
+  </si>
+  <si>
+    <t>IL1B</t>
+  </si>
+  <si>
+    <t>CXCL10</t>
+  </si>
+  <si>
+    <t>C1R</t>
+  </si>
+  <si>
+    <t>C5AR1</t>
+  </si>
+  <si>
+    <t>CCL3</t>
+  </si>
+  <si>
+    <t>IFNG</t>
+  </si>
+  <si>
+    <t>IFNGR1</t>
+  </si>
+  <si>
+    <t>IFNGR2</t>
+  </si>
+  <si>
+    <t>IL1R1</t>
+  </si>
+  <si>
+    <t>IL1R2</t>
+  </si>
+  <si>
+    <t>ARG1</t>
+  </si>
+  <si>
+    <t>CCL22</t>
+  </si>
+  <si>
+    <t>CD163</t>
+  </si>
+  <si>
+    <t>IL4</t>
+  </si>
+  <si>
+    <t>IL4R</t>
+  </si>
+  <si>
+    <t>IL10RA</t>
+  </si>
+  <si>
+    <t>IL10RB</t>
+  </si>
+  <si>
+    <t>IL13RA1</t>
+  </si>
+  <si>
+    <t>MYC</t>
+  </si>
+  <si>
+    <t>PPARG</t>
+  </si>
+  <si>
+    <t>TGFB1</t>
+  </si>
+  <si>
+    <t>TGFBR1</t>
+  </si>
+  <si>
+    <t>TGFBR2</t>
+  </si>
+  <si>
+    <t>CASP1</t>
+  </si>
+  <si>
+    <t>PTGS2</t>
+  </si>
+  <si>
+    <t>PTK2B</t>
+  </si>
+  <si>
+    <t>TNFRSF1A </t>
+  </si>
+  <si>
+    <t>TNFRSF1B</t>
+  </si>
+  <si>
+    <t>IL1RN</t>
+  </si>
+  <si>
+    <t>CHI3L3</t>
+  </si>
+  <si>
+    <t>MRC1</t>
+  </si>
+  <si>
+    <t>RETNLA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF666666"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -113,9 +180,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -430,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD75AA9B-8029-5A49-84E6-F5D4C30C34B5}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:A38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -441,52 +507,194 @@
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
